--- a/sudoku.xlsx
+++ b/sudoku.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifarslan/Desktop/Pyhton Projects/PyQt5_Study/Project_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifarslan/Desktop/Pyhton Projects/Sudoku-08-22-21/project_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE05F017-796C-6747-919C-0F0D5EA8E262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56635500-7173-A249-AF6D-ED008EAFBA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -326,11 +326,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,6 +488,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,13 +1110,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="192" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="2.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="2.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="4.5" style="2"/>
   </cols>
@@ -1043,11 +1131,11 @@
         <v>3</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1">
-        <v>7</v>
-      </c>
-      <c r="F1" s="14"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="6">
+        <v>7</v>
+      </c>
+      <c r="F1" s="40"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
@@ -1092,7 +1180,7 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="41">
         <v>8</v>
       </c>
       <c r="B4" s="4"/>
@@ -1104,12 +1192,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="18"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="I4" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
@@ -1123,12 +1211,12 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1">
+      <c r="I5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="43">
         <v>7</v>
       </c>
       <c r="B6" s="16"/>
@@ -1140,7 +1228,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="16">
+      <c r="I6" s="44">
         <v>6</v>
       </c>
     </row>
@@ -1184,11 +1272,11 @@
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="14"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="11">
+        <v>8</v>
+      </c>
+      <c r="F9" s="46"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11">
         <v>7</v>
@@ -1200,31 +1288,31 @@
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" s="21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G12" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I12" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>0</v>
@@ -1232,147 +1320,147 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="23">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" s="24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D13" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="26">
         <v>5</v>
       </c>
       <c r="G13" s="25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H13" s="23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" s="26">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" s="31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G14" s="27">
         <v>5</v>
       </c>
       <c r="H14" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14" s="29">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" s="21">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D15" s="35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E15" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="19">
         <v>4</v>
       </c>
       <c r="H15" s="20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I15" s="21">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H16" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I16" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F17" s="32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H17" s="28">
         <v>5</v>
       </c>
       <c r="I17" s="29">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1380,86 +1468,86 @@
         <v>9</v>
       </c>
       <c r="B18" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G18" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H18" s="20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I18" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" s="23">
         <v>8</v>
       </c>
       <c r="C19" s="26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="26">
         <v>9</v>
       </c>
       <c r="G19" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="26">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F20" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1562,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sudoku.xlsx
+++ b/sudoku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifarslan/Desktop/Pyhton Projects/PyQt5_Study/Project_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akif\Desktop\Python Projects\Sudoku\project_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE05F017-796C-6747-919C-0F0D5EA8E262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2689E1CE-412D-4110-98F2-C70B33109339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="37560" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sudoku" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>321511</xdr:colOff>
+      <xdr:colOff>292936</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1937</xdr:rowOff>
     </xdr:to>
@@ -1024,15 +1024,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="2.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="4.5" style="2"/>
+    <col min="1" max="5" width="2.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="2.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="4.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1074,7 +1076,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11">
         <v>9</v>
@@ -1127,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>7</v>
       </c>
@@ -1137,7 +1139,9 @@
       <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16">
@@ -1146,321 +1150,139 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="6">
-        <v>6</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="18"/>
       <c r="E7" s="4"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>8</v>
-      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>9</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="8"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="14"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11">
-        <v>7</v>
-      </c>
-      <c r="I9" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>5</v>
-      </c>
-      <c r="B12" s="20">
-        <v>3</v>
-      </c>
-      <c r="C12" s="37">
-        <v>4</v>
-      </c>
-      <c r="D12" s="19">
-        <v>6</v>
-      </c>
-      <c r="E12" s="20">
-        <v>7</v>
-      </c>
-      <c r="F12" s="21">
-        <v>8</v>
-      </c>
-      <c r="G12" s="19">
-        <v>9</v>
-      </c>
-      <c r="H12" s="20">
-        <v>1</v>
-      </c>
-      <c r="I12" s="21">
-        <v>2</v>
-      </c>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
-        <v>6</v>
-      </c>
-      <c r="B13" s="23">
-        <v>7</v>
-      </c>
-      <c r="C13" s="24">
-        <v>2</v>
-      </c>
-      <c r="D13" s="25">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23">
-        <v>9</v>
-      </c>
-      <c r="F13" s="26">
-        <v>5</v>
-      </c>
-      <c r="G13" s="25">
-        <v>3</v>
-      </c>
-      <c r="H13" s="23">
-        <v>4</v>
-      </c>
-      <c r="I13" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>1</v>
-      </c>
-      <c r="B14" s="31">
-        <v>9</v>
-      </c>
-      <c r="C14" s="32">
-        <v>8</v>
-      </c>
-      <c r="D14" s="27">
-        <v>3</v>
-      </c>
-      <c r="E14" s="28">
-        <v>4</v>
-      </c>
-      <c r="F14" s="29">
-        <v>2</v>
-      </c>
-      <c r="G14" s="27">
-        <v>5</v>
-      </c>
-      <c r="H14" s="28">
-        <v>6</v>
-      </c>
-      <c r="I14" s="29">
-        <v>7</v>
-      </c>
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>8</v>
-      </c>
-      <c r="B15" s="20">
-        <v>5</v>
-      </c>
-      <c r="C15" s="21">
-        <v>9</v>
-      </c>
-      <c r="D15" s="35">
-        <v>7</v>
-      </c>
-      <c r="E15" s="33">
-        <v>6</v>
-      </c>
-      <c r="F15" s="34">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>4</v>
-      </c>
-      <c r="H15" s="20">
-        <v>2</v>
-      </c>
-      <c r="I15" s="21">
-        <v>3</v>
-      </c>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
-        <v>4</v>
-      </c>
-      <c r="B16" s="23">
-        <v>2</v>
-      </c>
-      <c r="C16" s="26">
-        <v>6</v>
-      </c>
-      <c r="D16" s="22">
-        <v>8</v>
-      </c>
-      <c r="E16" s="23">
-        <v>5</v>
-      </c>
-      <c r="F16" s="24">
-        <v>3</v>
-      </c>
-      <c r="G16" s="25">
-        <v>7</v>
-      </c>
-      <c r="H16" s="23">
-        <v>9</v>
-      </c>
-      <c r="I16" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>7</v>
-      </c>
-      <c r="B17" s="28">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29">
-        <v>3</v>
-      </c>
-      <c r="D17" s="30">
-        <v>9</v>
-      </c>
-      <c r="E17" s="31">
-        <v>2</v>
-      </c>
-      <c r="F17" s="32">
-        <v>4</v>
-      </c>
-      <c r="G17" s="27">
-        <v>8</v>
-      </c>
-      <c r="H17" s="28">
-        <v>5</v>
-      </c>
-      <c r="I17" s="29">
-        <v>6</v>
-      </c>
+      <c r="A16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>9</v>
-      </c>
-      <c r="B18" s="20">
-        <v>6</v>
-      </c>
-      <c r="C18" s="21">
-        <v>1</v>
-      </c>
-      <c r="D18" s="19">
-        <v>5</v>
-      </c>
-      <c r="E18" s="20">
-        <v>3</v>
-      </c>
-      <c r="F18" s="21">
-        <v>7</v>
-      </c>
-      <c r="G18" s="19">
-        <v>2</v>
-      </c>
-      <c r="H18" s="20">
-        <v>8</v>
-      </c>
-      <c r="I18" s="21">
-        <v>4</v>
-      </c>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
-        <v>2</v>
-      </c>
-      <c r="B19" s="23">
-        <v>8</v>
-      </c>
-      <c r="C19" s="26">
-        <v>7</v>
-      </c>
-      <c r="D19" s="25">
-        <v>4</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1</v>
-      </c>
-      <c r="F19" s="26">
-        <v>9</v>
-      </c>
-      <c r="G19" s="25">
-        <v>6</v>
-      </c>
-      <c r="H19" s="23">
-        <v>3</v>
-      </c>
-      <c r="I19" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <v>3</v>
-      </c>
-      <c r="B20" s="28">
-        <v>4</v>
-      </c>
-      <c r="C20" s="29">
-        <v>5</v>
-      </c>
-      <c r="D20" s="27">
-        <v>2</v>
-      </c>
-      <c r="E20" s="28">
-        <v>8</v>
-      </c>
-      <c r="F20" s="29">
-        <v>6</v>
-      </c>
-      <c r="G20" s="27">
-        <v>1</v>
-      </c>
-      <c r="H20" s="28">
-        <v>7</v>
-      </c>
-      <c r="I20" s="29">
-        <v>9</v>
-      </c>
+      <c r="A19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1477,17 +1299,17 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="2"/>
-    <col min="14" max="22" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.1640625" style="2"/>
-    <col min="25" max="33" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="12" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="22" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="2"/>
+    <col min="25" max="33" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>5</v>
       </c>
@@ -1541,7 +1363,7 @@
       </c>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11">
         <v>9</v>
@@ -1573,7 +1395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>8</v>
       </c>
@@ -1641,7 +1463,7 @@
       </c>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>7</v>
       </c>
@@ -1673,7 +1495,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1741,7 +1563,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -1773,7 +1595,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1799,7 +1621,7 @@
       <c r="AF10" s="11"/>
       <c r="AG10" s="12"/>
     </row>
-    <row r="11" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1871,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>1</v>
       </c>
@@ -1958,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>7</v>
       </c>
@@ -2046,7 +1868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>3</v>
       </c>

--- a/sudoku.xlsx
+++ b/sudoku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akif\Desktop\Python Projects\Sudoku\project_folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifarslan/Desktop/Pyhton Projects/Sudoku-08-22-21/project_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA8F1E-CA5E-49A7-953C-8FD9E8093637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B13D4B-6A02-FF49-A285-DD2CDDF9C6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="690" windowWidth="37560" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sudoku" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -326,11 +326,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,6 +488,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +585,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>292936</xdr:colOff>
+      <xdr:colOff>321511</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1937</xdr:rowOff>
     </xdr:to>
@@ -1024,17 +1110,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="192" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="2.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="2.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="4.42578125" style="2"/>
+    <col min="1" max="7" width="2.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="4.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1045,11 +1131,11 @@
         <v>3</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1">
-        <v>7</v>
-      </c>
-      <c r="F1" s="14"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="6">
+        <v>7</v>
+      </c>
+      <c r="F1" s="40"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
@@ -1076,7 +1162,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11">
         <v>9</v>
@@ -1094,7 +1180,7 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="41">
         <v>8</v>
       </c>
       <c r="B4" s="4"/>
@@ -1106,12 +1192,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="18"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="I4" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
@@ -1125,12 +1211,12 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
         <v>7</v>
       </c>
       <c r="B6" s="16"/>
@@ -1142,145 +1228,327 @@
       <c r="F6" s="12"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="16">
+      <c r="I6" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="18"/>
       <c r="E7" s="4"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>8</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>9</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="11">
+        <v>8</v>
+      </c>
+      <c r="F9" s="46"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="H9" s="11">
+        <v>7</v>
+      </c>
+      <c r="I9" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="A12" s="19">
+        <v>5</v>
+      </c>
+      <c r="B12" s="20">
+        <v>3</v>
+      </c>
+      <c r="C12" s="37">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19">
+        <v>6</v>
+      </c>
+      <c r="E12" s="20">
+        <v>7</v>
+      </c>
+      <c r="F12" s="21">
+        <v>8</v>
+      </c>
+      <c r="G12" s="19">
+        <v>9</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
       <c r="J12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="A13" s="25">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23">
+        <v>7</v>
+      </c>
+      <c r="C13" s="24">
+        <v>2</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23">
+        <v>9</v>
+      </c>
+      <c r="F13" s="26">
+        <v>5</v>
+      </c>
+      <c r="G13" s="25">
+        <v>3</v>
+      </c>
+      <c r="H13" s="23">
+        <v>4</v>
+      </c>
+      <c r="I13" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>1</v>
+      </c>
+      <c r="B14" s="31">
+        <v>9</v>
+      </c>
+      <c r="C14" s="32">
+        <v>8</v>
+      </c>
+      <c r="D14" s="27">
+        <v>3</v>
+      </c>
+      <c r="E14" s="28">
+        <v>4</v>
+      </c>
+      <c r="F14" s="29">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>5</v>
+      </c>
+      <c r="H14" s="28">
+        <v>6</v>
+      </c>
+      <c r="I14" s="29">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="A15" s="19">
+        <v>8</v>
+      </c>
+      <c r="B15" s="20">
+        <v>5</v>
+      </c>
+      <c r="C15" s="21">
+        <v>9</v>
+      </c>
+      <c r="D15" s="35">
+        <v>7</v>
+      </c>
+      <c r="E15" s="33">
+        <v>6</v>
+      </c>
+      <c r="F15" s="34">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>4</v>
+      </c>
+      <c r="H15" s="20">
+        <v>2</v>
+      </c>
+      <c r="I15" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
+      <c r="A16" s="25">
+        <v>4</v>
+      </c>
+      <c r="B16" s="23">
+        <v>2</v>
+      </c>
+      <c r="C16" s="26">
+        <v>6</v>
+      </c>
+      <c r="D16" s="22">
+        <v>8</v>
+      </c>
+      <c r="E16" s="23">
+        <v>5</v>
+      </c>
+      <c r="F16" s="24">
+        <v>3</v>
+      </c>
+      <c r="G16" s="25">
+        <v>7</v>
+      </c>
+      <c r="H16" s="23">
+        <v>9</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>7</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="C17" s="29">
+        <v>3</v>
+      </c>
+      <c r="D17" s="30">
+        <v>9</v>
+      </c>
+      <c r="E17" s="31">
+        <v>2</v>
+      </c>
+      <c r="F17" s="32">
+        <v>4</v>
+      </c>
+      <c r="G17" s="27">
+        <v>8</v>
+      </c>
+      <c r="H17" s="28">
+        <v>5</v>
+      </c>
+      <c r="I17" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="A18" s="19">
+        <v>9</v>
+      </c>
+      <c r="B18" s="20">
+        <v>6</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19">
+        <v>5</v>
+      </c>
+      <c r="E18" s="20">
+        <v>3</v>
+      </c>
+      <c r="F18" s="21">
+        <v>7</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+      <c r="H18" s="20">
+        <v>8</v>
+      </c>
+      <c r="I18" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
+      <c r="A19" s="25">
+        <v>2</v>
+      </c>
+      <c r="B19" s="23">
+        <v>8</v>
+      </c>
+      <c r="C19" s="26">
+        <v>7</v>
+      </c>
+      <c r="D19" s="25">
+        <v>4</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="26">
+        <v>9</v>
+      </c>
+      <c r="G19" s="25">
+        <v>6</v>
+      </c>
+      <c r="H19" s="23">
+        <v>3</v>
+      </c>
+      <c r="I19" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>3</v>
+      </c>
+      <c r="B20" s="28">
+        <v>4</v>
+      </c>
+      <c r="C20" s="29">
+        <v>5</v>
+      </c>
+      <c r="D20" s="27">
+        <v>2</v>
+      </c>
+      <c r="E20" s="28">
+        <v>8</v>
+      </c>
+      <c r="F20" s="29">
+        <v>6</v>
+      </c>
+      <c r="G20" s="27">
+        <v>1</v>
+      </c>
+      <c r="H20" s="28">
+        <v>7</v>
+      </c>
+      <c r="I20" s="29">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,20 +1562,20 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="2"/>
-    <col min="14" max="22" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="2"/>
-    <col min="25" max="33" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="12" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="2"/>
+    <col min="14" max="22" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.1640625" style="2"/>
+    <col min="25" max="33" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>5</v>
       </c>
@@ -1361,7 +1629,7 @@
       </c>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11">
         <v>9</v>
@@ -1393,7 +1661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>8</v>
       </c>
@@ -1461,7 +1729,7 @@
       </c>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>7</v>
       </c>
@@ -1493,7 +1761,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1561,7 +1829,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -1593,7 +1861,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1619,7 +1887,7 @@
       <c r="AF10" s="11"/>
       <c r="AG10" s="12"/>
     </row>
-    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1691,7 +1959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>1</v>
       </c>
@@ -1778,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>7</v>
       </c>
@@ -1866,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>3</v>
       </c>

--- a/sudoku.xlsx
+++ b/sudoku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifarslan/Desktop/Pyhton Projects/Sudoku-08-22-21/project_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B13D4B-6A02-FF49-A285-DD2CDDF9C6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F6FD73-B931-564D-AE26-A8C57F74F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sudoku" sheetId="1" r:id="rId1"/>
@@ -579,15 +579,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1094576</xdr:colOff>
+      <xdr:colOff>318818</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>77558</xdr:rowOff>
+      <xdr:rowOff>110631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>321511</xdr:colOff>
+      <xdr:colOff>295053</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1937</xdr:rowOff>
+      <xdr:rowOff>35010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -616,8 +616,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4192019" y="77558"/>
-          <a:ext cx="2027104" cy="2003883"/>
+          <a:off x="3222620" y="110631"/>
+          <a:ext cx="2039985" cy="2014587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,33 +1108,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="192" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="2.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="2.33203125" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="4.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6">
-        <v>3</v>
-      </c>
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="7"/>
       <c r="D1" s="39"/>
-      <c r="E1" s="6">
-        <v>7</v>
-      </c>
+      <c r="E1" s="6"/>
       <c r="F1" s="40"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
@@ -1144,175 +1136,121 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>6</v>
-      </c>
+      <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
-      </c>
-      <c r="F2" s="14">
-        <v>5</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="11">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12">
-        <v>8</v>
-      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11">
-        <v>6</v>
-      </c>
+      <c r="H3" s="11"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="41">
-        <v>8</v>
-      </c>
+      <c r="A4" s="41"/>
       <c r="B4" s="4"/>
       <c r="C4" s="13"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6">
-        <v>6</v>
-      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="18"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="42">
-        <v>3</v>
-      </c>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="B5" s="1"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="8">
-        <v>8</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="9">
-        <v>3</v>
-      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <v>7</v>
-      </c>
+      <c r="A6" s="43"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="44">
-        <v>6</v>
-      </c>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="6">
-        <v>6</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="18"/>
       <c r="E7" s="4"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>8</v>
-      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>9</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="8"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="9">
-        <v>5</v>
-      </c>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="45"/>
-      <c r="E9" s="11">
-        <v>8</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="46"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11">
-        <v>7</v>
-      </c>
-      <c r="I9" s="12">
-        <v>9</v>
-      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" s="20">
         <v>7</v>
       </c>
       <c r="F12" s="21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G12" s="19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H12" s="20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I12" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>0</v>
@@ -1320,39 +1258,39 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" s="23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" s="24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="23">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F13" s="26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" s="25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H13" s="23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I13" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="31">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="32">
         <v>8</v>
@@ -1361,194 +1299,352 @@
         <v>3</v>
       </c>
       <c r="E14" s="28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F14" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I14" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" s="35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" s="33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F15" s="34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" s="19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H15" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="21">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F16" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" s="25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16" s="23">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I16" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="30">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E17" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H17" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="29">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G18" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I18" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E19" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G19" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I19" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H20" s="28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I20" s="29">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="39">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="5">
+        <v>8</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="14">
+        <v>8</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12">
+        <v>9</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16">
+        <v>3</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11">
+        <v>5</v>
+      </c>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="41">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4</v>
+      </c>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="1">
+        <v>9</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="16">
+        <v>7</v>
+      </c>
+      <c r="C29" s="17">
+        <v>4</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12">
+        <v>2</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="4">
+        <v>7</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="5">
+        <v>6</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="3">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11">
+        <v>4</v>
+      </c>
+      <c r="C32" s="12">
+        <v>6</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="46">
+        <v>3</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1559,10 +1655,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB38CF2-95E9-46B4-9027-7AEC0B6D0336}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:I9"/>
+      <selection activeCell="Y2" sqref="Y2:AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1616,11 +1712,11 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="14"/>
+      <c r="AB2" s="39">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="5">
         <v>8</v>
       </c>
@@ -1711,7 +1807,7 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="41">
         <v>9</v>
       </c>
       <c r="Z5" s="4"/>
@@ -1727,7 +1823,7 @@
       <c r="AF5" s="4">
         <v>4</v>
       </c>
-      <c r="AG5" s="4"/>
+      <c r="AG5" s="42"/>
     </row>
     <row r="6" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -1745,7 +1841,7 @@
       <c r="I6" s="16">
         <v>6</v>
       </c>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="8"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="14">
         <v>1</v>
@@ -1759,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
+      <c r="AG6" s="9"/>
     </row>
     <row r="7" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -1777,7 +1873,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="Y7" s="16"/>
+      <c r="Y7" s="43"/>
       <c r="Z7" s="16">
         <v>7</v>
       </c>
@@ -1791,7 +1887,7 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="16"/>
-      <c r="AG7" s="16">
+      <c r="AG7" s="44">
         <v>3</v>
       </c>
     </row>
@@ -1878,9 +1974,9 @@
       <c r="AA10" s="12">
         <v>6</v>
       </c>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="14">
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="46">
         <v>3</v>
       </c>
       <c r="AE10" s="10"/>
@@ -1898,7 +1994,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>5</v>
       </c>
@@ -1958,6 +2054,21 @@
       <c r="I13" s="26">
         <v>8</v>
       </c>
+      <c r="Y13" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
@@ -1987,8 +2098,25 @@
       <c r="I14" s="29">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Y14" s="8">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="9"/>
+    </row>
+    <row r="15" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>8</v>
       </c>
@@ -2016,6 +2144,21 @@
       <c r="I15" s="21">
         <v>3</v>
       </c>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="11">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="12"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
@@ -2045,8 +2188,23 @@
       <c r="I16" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y16" s="41">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>7</v>
       </c>
@@ -2075,8 +2233,25 @@
         <v>6</v>
       </c>
       <c r="S17"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Y17" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="8">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="9">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>9</v>
       </c>
@@ -2104,8 +2279,23 @@
       <c r="I18" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Y18" s="43">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
         <v>2</v>
       </c>
@@ -2133,8 +2323,23 @@
       <c r="I19" s="26">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>8</v>
+      </c>
+      <c r="AG19" s="7"/>
+    </row>
+    <row r="20" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>3</v>
       </c>
@@ -2160,6 +2365,40 @@
         <v>7</v>
       </c>
       <c r="I20" s="29">
+        <v>9</v>
+      </c>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AG21" s="12">
         <v>9</v>
       </c>
     </row>

--- a/sudoku.xlsx
+++ b/sudoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifarslan/Desktop/Pyhton Projects/Sudoku-08-22-21/project_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F6FD73-B931-564D-AE26-A8C57F74F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA81634-BF73-4945-A68D-2035CE355F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="192" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H7" sqref="F7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,11 +1125,17 @@
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="39"/>
+      <c r="D1" s="39">
+        <v>5</v>
+      </c>
       <c r="E1" s="6"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6">
+        <v>3</v>
+      </c>
       <c r="I1" s="7"/>
       <c r="J1" s="2" t="s">
         <v>1</v>
@@ -1140,73 +1146,117 @@
       <c r="B2" s="1"/>
       <c r="C2" s="9"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>8</v>
+      </c>
       <c r="G2" s="8"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12">
+        <v>9</v>
+      </c>
       <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="16">
+        <v>3</v>
+      </c>
       <c r="F3" s="17"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11">
+        <v>5</v>
+      </c>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+      <c r="A4" s="41">
+        <v>9</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
       <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>9</v>
+      </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="16">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="44"/>
+      <c r="I6" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>7</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="8"/>
       <c r="H8" s="1"/>
@@ -1214,8 +1264,12 @@
     </row>
     <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12">
+        <v>6</v>
+      </c>
       <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="46"/>
@@ -1226,31 +1280,31 @@
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="20">
         <v>1</v>
       </c>
       <c r="C12" s="37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D12" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" s="21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12" s="19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H12" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I12" s="21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>0</v>
@@ -1258,57 +1312,57 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13" s="23">
         <v>2</v>
       </c>
       <c r="F13" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H13" s="23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I13" s="26">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14" s="28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="28">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I14" s="29">
         <v>6</v>
@@ -1319,57 +1373,57 @@
         <v>9</v>
       </c>
       <c r="B15" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" s="34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H15" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="21">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="26">
         <v>1</v>
       </c>
       <c r="D16" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="23">
         <v>9</v>
       </c>
       <c r="F16" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" s="25">
         <v>5</v>
       </c>
       <c r="H16" s="23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I16" s="26">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1383,48 +1437,48 @@
         <v>4</v>
       </c>
       <c r="D17" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F17" s="32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G17" s="27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H17" s="28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I17" s="29">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B18" s="20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E18" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="21">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G18" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H18" s="20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" s="21">
         <v>1</v>
@@ -1438,54 +1492,54 @@
         <v>9</v>
       </c>
       <c r="C19" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" s="25">
         <v>8</v>
       </c>
       <c r="E19" s="23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H19" s="23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I19" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G20" s="27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H20" s="28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I20" s="29">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/sudoku.xlsx
+++ b/sudoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifarslan/Desktop/Pyhton Projects/Sudoku-08-22-21/project_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA81634-BF73-4945-A68D-2035CE355F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BCB4BD-020D-8745-A78D-3D407D628A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="192" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="H7" sqref="F7:H9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,31 +1232,21 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="4">
-        <v>7</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="13"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
+      <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="14"/>
       <c r="G8" s="8"/>
       <c r="H8" s="1"/>
@@ -1264,12 +1254,8 @@
     </row>
     <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="11">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12">
-        <v>6</v>
-      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="46"/>
@@ -1280,13 +1266,13 @@
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" s="19">
         <v>5</v>
@@ -1295,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G12" s="19">
         <v>8</v>
@@ -1312,7 +1298,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" s="23">
         <v>3</v>
@@ -1333,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13" s="26">
         <v>7</v>
@@ -1341,22 +1327,22 @@
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" s="31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" s="32">
         <v>9</v>
       </c>
       <c r="D14" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="28">
         <v>3</v>
       </c>
       <c r="F14" s="29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G14" s="27">
         <v>2</v>
@@ -1365,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1373,19 +1359,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" s="21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D15" s="35">
         <v>3</v>
       </c>
       <c r="E15" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" s="34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G15" s="19">
         <v>1</v>
@@ -1394,7 +1380,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="21">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1402,13 +1388,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" s="26">
         <v>1</v>
       </c>
       <c r="D16" s="22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="23">
         <v>9</v>
@@ -1423,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="26">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1440,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" s="32">
         <v>2</v>
@@ -1449,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" s="29">
         <v>3</v>
@@ -1457,89 +1443,89 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" s="21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G18" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I18" s="21">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B19" s="23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C19" s="26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F19" s="26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G19" s="25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" s="23">
         <v>2</v>
       </c>
       <c r="I19" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B20" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E20" s="28">
         <v>1</v>
       </c>
       <c r="F20" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" s="27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H20" s="28">
         <v>9</v>
       </c>
       <c r="I20" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/sudoku.xlsx
+++ b/sudoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifarslan/Desktop/Pyhton Projects/Sudoku-08-22-21/project_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BCB4BD-020D-8745-A78D-3D407D628A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C644E26B-4428-C441-A7B2-CEF397DFEE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,8 +1110,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="192" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="192" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,17 +1232,23 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="18"/>
       <c r="E7" s="4"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="9"/>
       <c r="D8" s="3"/>
@@ -1254,8 +1260,12 @@
     </row>
     <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12">
+        <v>6</v>
+      </c>
       <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="46"/>
@@ -1266,7 +1276,7 @@
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="20">
         <v>2</v>
@@ -1278,10 +1288,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" s="21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12" s="19">
         <v>8</v>
@@ -1298,7 +1308,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" s="23">
         <v>3</v>
@@ -1319,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I13" s="26">
         <v>7</v>
@@ -1330,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="32">
         <v>9</v>
       </c>
       <c r="D14" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="28">
         <v>3</v>
@@ -1351,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1359,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="21">
         <v>2</v>
@@ -1380,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1388,13 +1398,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" s="26">
         <v>1</v>
       </c>
       <c r="D16" s="22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="23">
         <v>9</v>
@@ -1426,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" s="32">
         <v>2</v>
@@ -1435,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I17" s="29">
         <v>3</v>
@@ -1443,60 +1453,60 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18" s="20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" s="21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E18" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="21">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G18" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="21">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B19" s="23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C19" s="26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" s="26">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G19" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I19" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1504,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="29">
         <v>8</v>
@@ -1513,10 +1523,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F20" s="29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G20" s="27">
         <v>3</v>
@@ -1525,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/sudoku.xlsx
+++ b/sudoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifarslan/Desktop/Pyhton Projects/Sudoku-08-22-21/project_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C644E26B-4428-C441-A7B2-CEF397DFEE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B7D9B-E12E-BD48-ACCE-8D34EE18544E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,8 +1110,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="192" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="192" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>7</v>
+      </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="5">
-        <v>6</v>
-      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
@@ -1251,8 +1251,12 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="8"/>
       <c r="H8" s="1"/>
@@ -1268,7 +1272,9 @@
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="46"/>
+      <c r="F9" s="46">
+        <v>3</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
@@ -1276,19 +1282,19 @@
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B12" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="37">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" s="19">
         <v>5</v>
       </c>
       <c r="E12" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="21">
         <v>6</v>
@@ -1337,22 +1343,22 @@
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14" s="31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" s="32">
         <v>9</v>
       </c>
       <c r="D14" s="27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14" s="28">
         <v>3</v>
       </c>
       <c r="F14" s="29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G14" s="27">
         <v>2</v>
@@ -1372,16 +1378,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D15" s="35">
         <v>3</v>
       </c>
       <c r="E15" s="33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" s="34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15" s="19">
         <v>1</v>
@@ -1390,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="21">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" s="26">
         <v>1</v>
@@ -1419,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="26">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1453,7 +1459,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B18" s="20">
         <v>5</v>
@@ -1462,10 +1468,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" s="20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" s="21">
         <v>9</v>
@@ -1474,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I18" s="21">
         <v>1</v>
@@ -1488,22 +1494,22 @@
         <v>9</v>
       </c>
       <c r="C19" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E19" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" s="25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H19" s="23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I19" s="26">
         <v>4</v>
@@ -1511,25 +1517,25 @@
     </row>
     <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B20" s="28">
         <v>4</v>
       </c>
       <c r="C20" s="29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" s="27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E20" s="28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H20" s="28">
         <v>9</v>
